--- a/src/main/dataProviderFiles/LoginData.xlsx
+++ b/src/main/dataProviderFiles/LoginData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -27,13 +28,40 @@
     <t>password</t>
   </si>
   <si>
-    <t>000350</t>
+    <t>afacctno</t>
+  </si>
+  <si>
+    <t>Cash. 046C000350 - cá nhân TN</t>
+  </si>
+  <si>
+    <t>Cash. 046FIA0016 - NDT NUOC NGOAI (cá nhân)</t>
   </si>
   <si>
     <t>046C000350</t>
   </si>
   <si>
-    <t>Timeout</t>
+    <t>046FIA0016</t>
+  </si>
+  <si>
+    <t>023C000350</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>Tài khoản đăng nhập không hợp lệ!</t>
+  </si>
+  <si>
+    <t>Sai mật khẩu!</t>
+  </si>
+  <si>
+    <t>Chưa nhập Số tài khoản</t>
+  </si>
+  <si>
+    <t>Chưa nhập Mật khẩu</t>
+  </si>
+  <si>
+    <t>Chưa nhập Số tài khoảnChưa nhập Mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -83,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,15 +400,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -388,29 +419,105 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
-      <c r="C2">
-        <v>30</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>123</v>
       </c>
-      <c r="C3">
-        <v>180</v>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/dataProviderFiles/LoginData.xlsx
+++ b/src/main/dataProviderFiles/LoginData.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/dataProviderFiles/LoginData.xlsx
+++ b/src/main/dataProviderFiles/LoginData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -31,18 +32,9 @@
     <t>afacctno</t>
   </si>
   <si>
-    <t>Cash. 046C000350 - cá nhân TN</t>
-  </si>
-  <si>
-    <t>Cash. 046FIA0016 - NDT NUOC NGOAI (cá nhân)</t>
-  </si>
-  <si>
     <t>046C000350</t>
   </si>
   <si>
-    <t>046FIA0016</t>
-  </si>
-  <si>
     <t>023C000350</t>
   </si>
   <si>
@@ -62,13 +54,58 @@
   </si>
   <si>
     <t>Chưa nhập Số tài khoảnChưa nhập Mật khẩu</t>
+  </si>
+  <si>
+    <t>046FIA0015</t>
+  </si>
+  <si>
+    <t>046C000038</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>qtty</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>priceType</t>
+  </si>
+  <si>
+    <t>0001000474</t>
+  </si>
+  <si>
+    <t>Lệnh thông thường</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Bán</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Margin. 046C000350 - Cá nhân trong nu?c 2 Cá nhân trong nu?c 2 Cá nhân trong nu?c 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +120,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Roboto Mono Medium"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,12 +153,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,24 +469,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -454,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,29 +507,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1234</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,20 +538,91 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/dataProviderFiles/LoginData.xlsx
+++ b/src/main/dataProviderFiles/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -83,22 +83,31 @@
     <t>priceType</t>
   </si>
   <si>
-    <t>0001000474</t>
-  </si>
-  <si>
     <t>Lệnh thông thường</t>
   </si>
   <si>
     <t>AAA</t>
   </si>
   <si>
-    <t>Bán</t>
-  </si>
-  <si>
     <t>LO</t>
   </si>
   <si>
-    <t>Margin. 046C000350 - Cá nhân trong nu?c 2 Cá nhân trong nu?c 2 Cá nhân trong nu?c 2</t>
+    <t>Cash. 046C000350 - Cá nhân trong nu?c 2 Cá nhân trong nu?c 2 Cá nhân trong nu?c 2</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>tradingPass</t>
+  </si>
+  <si>
+    <t>046FIA0016</t>
+  </si>
+  <si>
+    <t>Mua</t>
+  </si>
+  <si>
+    <t>0001000021</t>
   </si>
 </sst>
 </file>
@@ -153,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -163,6 +172,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +456,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +485,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -562,67 +572,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
+      <c r="J2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/dataProviderFiles/LoginData.xlsx
+++ b/src/main/dataProviderFiles/LoginData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>0001000021</t>
+  </si>
+  <si>
+    <t>Order result</t>
+  </si>
+  <si>
+    <t>Mua;AAA;Chờ gửi;LO;100;25,000;</t>
+  </si>
+  <si>
+    <t>Mua;AAA;Chờ gửi;LO;99;25,000;</t>
+  </si>
+  <si>
+    <t>Bán</t>
+  </si>
+  <si>
+    <t>Bán;AAA;Chờ gửi;LO;100;25,000;</t>
+  </si>
+  <si>
+    <t>BSL</t>
+  </si>
+  <si>
+    <t>Bán;BSL;Chờ gửi;LO;15;11,000;</t>
   </si>
 </sst>
 </file>
@@ -572,10 +593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,9 +611,10 @@
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -623,8 +645,11 @@
       <c r="J1" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -654,6 +679,114 @@
       </c>
       <c r="J2">
         <v>123</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>123</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>123</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
